--- a/SequencingSummary/20220616_L1_fastq_bcl2fastq_dual.xlsx
+++ b/SequencingSummary/20220616_L1_fastq_bcl2fastq_dual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Flowcell Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t xml:space="preserve">Clusters (Raw) </t>
   </si>
@@ -81,18 +81,27 @@
     <t xml:space="preserve">GCAGTATAGG+GTGCACGGAA</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-D4</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_060</t>
   </si>
   <si>
     <t xml:space="preserve">CCTGTCAGGG+GTTACGGGCT</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-D7</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_063</t>
   </si>
   <si>
     <t xml:space="preserve">CCCGTTCTCG+CCAATCCGTC</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-H3</t>
+  </si>
+  <si>
     <t xml:space="preserve">default </t>
   </si>
   <si>
@@ -141,6 +150,9 @@
     <t xml:space="preserve">STARR_041_S6</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-GA-C7</t>
+  </si>
+  <si>
     <t xml:space="preserve">TCAGAAATAT+AGATCTCGGT</t>
   </si>
   <si>
@@ -171,6 +183,15 @@
     <t xml:space="preserve">TCGCTTCGAT+AGATCTCGGT</t>
   </si>
   <si>
+    <t xml:space="preserve">TCGCTTCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026_S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI-GA-F7</t>
+  </si>
+  <si>
     <t xml:space="preserve">CGTGCAGAAT+AGATCTCGGT</t>
   </si>
   <si>
@@ -183,9 +204,21 @@
     <t xml:space="preserve">AACAAGATAT+AGATCTCGGT</t>
   </si>
   <si>
+    <t xml:space="preserve">AACAAGAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026_S2</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTATGCTCAT+AGATCTCGGT</t>
   </si>
   <si>
+    <t xml:space="preserve">GTATGCTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_026_S4</t>
+  </si>
+  <si>
     <t xml:space="preserve">GGGGGGGGGG+AGATCTCGGT</t>
   </si>
   <si>
@@ -204,22 +237,7 @@
     <t xml:space="preserve">STARR_043_S12</t>
   </si>
   <si>
-    <t xml:space="preserve">AGATCTGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026_S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCGATACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026_S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACCGCTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_026_S4</t>
+    <t xml:space="preserve">SI-GA-D7</t>
   </si>
   <si>
     <t xml:space="preserve">ATTTGCTA</t>
@@ -244,8 +262,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -319,19 +339,43 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,8 +384,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -363,36 +415,36 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>7660044288</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>3147717791</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>371431</v>
       </c>
     </row>
@@ -414,244 +466,256 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="17.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="1" width="12.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="2.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="28.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="4" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="4" width="12.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="2" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="45.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="45.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="3" t="n">
         <v>3147717791</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="4" t="n">
         <v>98.9</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="3" t="n">
         <v>371431</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="4" t="n">
         <v>41.09</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="4" t="n">
         <v>94.2</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="4" t="n">
         <v>35.98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="3" t="n">
         <v>720683926</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="4" t="n">
         <v>22.9</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="3" t="n">
         <v>85041</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="4" t="n">
         <v>93.68</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="4" t="n">
         <v>35.86</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>674005833</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="4" t="n">
         <v>21.41</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="4" t="n">
         <v>98.26</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="4" t="n">
         <v>1.74</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="3" t="n">
         <v>79533</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="4" t="n">
         <v>94.42</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="4" t="n">
         <v>36.03</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>535582253</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="4" t="n">
         <v>17.01</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="4" t="n">
         <v>98.4</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="4" t="n">
         <v>1.6</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="3" t="n">
         <v>63199</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="4" t="n">
         <v>94.8</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="4" t="n">
         <v>36.11</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>1217445779</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="4" t="n">
         <v>38.68</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="n">
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>143659</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="4" t="n">
         <v>32.04</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="4" t="n">
         <v>94.13</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="4" t="n">
         <v>35.97</v>
       </c>
     </row>
@@ -659,14 +723,14 @@
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -687,46 +751,47 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,18 +802,20 @@
         <v>168363140</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -758,18 +825,20 @@
         <v>167039440</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -779,18 +848,20 @@
         <v>163676320</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -800,16 +871,19 @@
         <v>142031240</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,12 +894,20 @@
         <v>89893580</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -835,18 +917,20 @@
         <v>85009500</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -856,12 +940,20 @@
         <v>77396800</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -871,12 +963,20 @@
         <v>71763260</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -886,16 +986,16 @@
         <v>45673040</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,16 +1006,19 @@
         <v>12440220</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,68 +1026,57 @@
         <v>4</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
